--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/pnlfcp.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/pnlfcp.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{34820C36-0CC0-4B6A-890F-FDE0B7A2D863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77690AB7-145A-42BF-BDEE-458D3EE42959}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{34820C36-0CC0-4B6A-890F-FDE0B7A2D863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{64DF0DAF-2E7B-48E2-B85C-67681D16953B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Active Campaign" sheetId="2" r:id="rId1"/>
+    <sheet name="Version 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -89,6 +89,9 @@
     <t>Flawless Body &amp; Face Essentials (Fair/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body &amp; Face Essentials -Deluxe Kit (Light/Brunette)</t>
+  </si>
+  <si>
     <t>Flawless Body &amp; Face Essentials(Natural/Brunette)</t>
   </si>
   <si>
@@ -98,9 +101,15 @@
     <t>Flawless Body &amp; Face Essentials (Bronze/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body &amp; Face Essentials - (Deep/Brunette)</t>
+  </si>
+  <si>
     <t>Flawless Body Essentials (Fair/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body Essentials (Light/Brunette)</t>
+  </si>
+  <si>
     <t>Flawless Body Essentials (Natural/Brunette)</t>
   </si>
   <si>
@@ -110,6 +119,9 @@
     <t>Flawless Body Essentials (Bronze/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body Essentials (Deep/Brunette)</t>
+  </si>
+  <si>
     <t>Actual Kit Name (as in site)</t>
   </si>
   <si>
@@ -125,6 +137,9 @@
     <t>Fair Radiance</t>
   </si>
   <si>
+    <t>Light Radiance</t>
+  </si>
+  <si>
     <t>Natural Radiance</t>
   </si>
   <si>
@@ -134,6 +149,9 @@
     <t>Bronze Radiance</t>
   </si>
   <si>
+    <t>Deep Radiance</t>
+  </si>
+  <si>
     <t>PagePattern</t>
   </si>
   <si>
@@ -170,6 +188,9 @@
     <t>WY2A0803</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0992 </t>
+  </si>
+  <si>
     <t>WY2A0801</t>
   </si>
   <si>
@@ -179,9 +200,15 @@
     <t>WY2A0804</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0993 </t>
+  </si>
+  <si>
     <t>WY2A0157</t>
   </si>
   <si>
+    <t>WY2A0881</t>
+  </si>
+  <si>
     <t>WY2A0155</t>
   </si>
   <si>
@@ -191,6 +218,9 @@
     <t>WY2A0158</t>
   </si>
   <si>
+    <t>WY2A0891</t>
+  </si>
+  <si>
     <t>Entry piece count</t>
   </si>
   <si>
@@ -218,6 +248,9 @@
     <t>RWYA46S</t>
   </si>
   <si>
+    <t>RWYA4G7</t>
+  </si>
+  <si>
     <t>RWYA46T</t>
   </si>
   <si>
@@ -227,9 +260,15 @@
     <t>RWYA46V</t>
   </si>
   <si>
+    <t>RWYA4G8</t>
+  </si>
+  <si>
     <t>RWYA34H</t>
   </si>
   <si>
+    <t>RWYA4FY</t>
+  </si>
+  <si>
     <t>RWYA33N</t>
   </si>
   <si>
@@ -237,6 +276,9 @@
   </si>
   <si>
     <t>RWYA34G</t>
+  </si>
+  <si>
+    <t>RWYA4G3</t>
   </si>
   <si>
     <t>Entry Cart Language</t>
@@ -289,6 +331,9 @@
     <t>WY2A0779</t>
   </si>
   <si>
+    <t>WY2A0991</t>
+  </si>
+  <si>
     <t>WY2A0805</t>
   </si>
   <si>
@@ -298,9 +343,15 @@
     <t>WY2A0780</t>
   </si>
   <si>
+    <t>WY2A0994 </t>
+  </si>
+  <si>
     <t>WY2A0141</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0880 </t>
+  </si>
+  <si>
     <t>WY2A0139</t>
   </si>
   <si>
@@ -310,12 +361,18 @@
     <t>WY2A0142</t>
   </si>
   <si>
+    <t>WY2A0888</t>
+  </si>
+  <si>
     <t>Post Purchase Renewal Plan</t>
   </si>
   <si>
     <t>RWYA46W</t>
   </si>
   <si>
+    <t>RWYA4G9</t>
+  </si>
+  <si>
     <t>RWYA46X</t>
   </si>
   <si>
@@ -325,9 +382,15 @@
     <t>RWYA473</t>
   </si>
   <si>
+    <t>RWYA4GA</t>
+  </si>
+  <si>
     <t>RWYA34V</t>
   </si>
   <si>
+    <t>RWYA4G4</t>
+  </si>
+  <si>
     <t>RWYA34T</t>
   </si>
   <si>
@@ -335,6 +398,9 @@
   </si>
   <si>
     <t>RWYA34W</t>
+  </si>
+  <si>
+    <t>RWYA4G6</t>
   </si>
   <si>
     <t>Post Purchase Upsell Pricing</t>
@@ -429,6 +495,9 @@
     <t>WY2A0796</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0995 </t>
+  </si>
+  <si>
     <t>WY2A0781</t>
   </si>
   <si>
@@ -438,9 +507,15 @@
     <t>WY2A0797</t>
   </si>
   <si>
+    <t>WY2A0996</t>
+  </si>
+  <si>
     <t>WY2A0129</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0886 </t>
+  </si>
+  <si>
     <t>WY2A0127</t>
   </si>
   <si>
@@ -450,6 +525,9 @@
     <t>WY2A0130</t>
   </si>
   <si>
+    <t>WY2A0861</t>
+  </si>
+  <si>
     <t>Continuity Payments</t>
   </si>
   <si>
@@ -504,6 +582,9 @@
     <t>WY2A0794</t>
   </si>
   <si>
+    <t>WY2A0976 </t>
+  </si>
+  <si>
     <t>WY2A0790</t>
   </si>
   <si>
@@ -513,9 +594,15 @@
     <t>WY2A0795</t>
   </si>
   <si>
+    <t>WY2A0970 </t>
+  </si>
+  <si>
     <t>WY2A0800</t>
   </si>
   <si>
+    <t>WY2A0969 </t>
+  </si>
+  <si>
     <t>WY2A0798</t>
   </si>
   <si>
@@ -525,6 +612,9 @@
     <t>WY2A0786</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0971 </t>
+  </si>
+  <si>
     <t>Pre-Purchase Entry piece count</t>
   </si>
   <si>
@@ -543,12 +633,15 @@
     <t>Pre-Purchase Entry Shipping</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>RWYA47D</t>
   </si>
   <si>
+    <t>RWYA4GF</t>
+  </si>
+  <si>
     <t>RWYA47E</t>
   </si>
   <si>
@@ -558,9 +651,15 @@
     <t>RWYA47G</t>
   </si>
   <si>
+    <t>RWYA4GG</t>
+  </si>
+  <si>
     <t>RWYA474</t>
   </si>
   <si>
+    <t>RWYA4GB</t>
+  </si>
+  <si>
     <t>RWYA476</t>
   </si>
   <si>
@@ -568,6 +667,9 @@
   </si>
   <si>
     <t>RWYA478</t>
+  </si>
+  <si>
+    <t>RWYA4GC</t>
   </si>
   <si>
     <t>Pre-Purchase Entry Promotion 1</t>
@@ -614,6 +716,9 @@
     <t>WY2A0808</t>
   </si>
   <si>
+    <t>WY2A0977 </t>
+  </si>
+  <si>
     <t>WY2A0810</t>
   </si>
   <si>
@@ -623,9 +728,15 @@
     <t>WY2A0809</t>
   </si>
   <si>
+    <t>WY2A0966</t>
+  </si>
+  <si>
     <t>WY2A0784</t>
   </si>
   <si>
+    <t>WY2A0972</t>
+  </si>
+  <si>
     <t>WY2A0787</t>
   </si>
   <si>
@@ -635,6 +746,9 @@
     <t>WY2A0785</t>
   </si>
   <si>
+    <t>WY2A0973 </t>
+  </si>
+  <si>
     <t>Post Purchase Upsell piece count</t>
   </si>
   <si>
@@ -650,6 +764,9 @@
     <t>RWYA47H</t>
   </si>
   <si>
+    <t>RWYA4GH</t>
+  </si>
+  <si>
     <t>RWYA47J</t>
   </si>
   <si>
@@ -659,9 +776,15 @@
     <t>RWYA47L</t>
   </si>
   <si>
+    <t>RWYA4GJ</t>
+  </si>
+  <si>
     <t>RWYA479</t>
   </si>
   <si>
+    <t>RWYA4GD</t>
+  </si>
+  <si>
     <t>RWYA47A</t>
   </si>
   <si>
@@ -669,6 +792,9 @@
   </si>
   <si>
     <t>RWYA47C</t>
+  </si>
+  <si>
+    <t>RWYA4GE</t>
   </si>
   <si>
     <t>IWYA396</t>
@@ -712,6 +838,9 @@
     <t>WY2A0813</t>
   </si>
   <si>
+    <t>WY2A0968</t>
+  </si>
+  <si>
     <t>WY2A0811</t>
   </si>
   <si>
@@ -721,9 +850,15 @@
     <t>WY2A0814</t>
   </si>
   <si>
+    <t>WY2A0967</t>
+  </si>
+  <si>
     <t>WY2A0788</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0974 </t>
+  </si>
+  <si>
     <t>WY2A0791</t>
   </si>
   <si>
@@ -733,145 +868,10 @@
     <t>WY2A0789</t>
   </si>
   <si>
+    <t>WY2A0975</t>
+  </si>
+  <si>
     <t>End</t>
-  </si>
-  <si>
-    <t>Flawless Body &amp; Face Essentials -Deluxe Kit (Light/Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body &amp; Face Essentials - (Deep/Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials (Light/Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials (Deep/Brunette)</t>
-  </si>
-  <si>
-    <t>Light Radiance</t>
-  </si>
-  <si>
-    <t>Deep Radiance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0992 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0993 </t>
-  </si>
-  <si>
-    <t>WY2A0881</t>
-  </si>
-  <si>
-    <t>WY2A0891</t>
-  </si>
-  <si>
-    <t>RWYA4G7</t>
-  </si>
-  <si>
-    <t>RWYA4G8</t>
-  </si>
-  <si>
-    <t>RWYA4FY</t>
-  </si>
-  <si>
-    <t>RWYA4G3</t>
-  </si>
-  <si>
-    <t>WY2A0991</t>
-  </si>
-  <si>
-    <t>WY2A0994 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0880 </t>
-  </si>
-  <si>
-    <t>WY2A0888</t>
-  </si>
-  <si>
-    <t>RWYA4G9</t>
-  </si>
-  <si>
-    <t>RWYA4GA</t>
-  </si>
-  <si>
-    <t>RWYA4G4</t>
-  </si>
-  <si>
-    <t>RWYA4G6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0995 </t>
-  </si>
-  <si>
-    <t>WY2A0996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0886 </t>
-  </si>
-  <si>
-    <t>WY2A0861</t>
-  </si>
-  <si>
-    <t>WY2A0976 </t>
-  </si>
-  <si>
-    <t>WY2A0970 </t>
-  </si>
-  <si>
-    <t>WY2A0969 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0971 </t>
-  </si>
-  <si>
-    <t>RWYA4GF</t>
-  </si>
-  <si>
-    <t>RWYA4GG</t>
-  </si>
-  <si>
-    <t>RWYA4GB</t>
-  </si>
-  <si>
-    <t>RWYA4GC</t>
-  </si>
-  <si>
-    <t>WY2A0977 </t>
-  </si>
-  <si>
-    <t>WY2A0966</t>
-  </si>
-  <si>
-    <t>WY2A0972</t>
-  </si>
-  <si>
-    <t>WY2A0973 </t>
-  </si>
-  <si>
-    <t>RWYA4GH</t>
-  </si>
-  <si>
-    <t>RWYA4GJ</t>
-  </si>
-  <si>
-    <t>RWYA4GD</t>
-  </si>
-  <si>
-    <t>RWYA4GE</t>
-  </si>
-  <si>
-    <t>WY2A0968</t>
-  </si>
-  <si>
-    <t>WY2A0967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0974 </t>
-  </si>
-  <si>
-    <t>WY2A0975</t>
   </si>
 </sst>
 </file>
@@ -1707,2671 +1707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L105"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="48.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="48" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" style="48" customWidth="1"/>
-    <col min="11" max="11" width="37.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" style="11" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="56"/>
-    </row>
-    <row r="2" spans="1:12" ht="30">
-      <c r="A2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="10">
-        <v>53</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="52">
-        <v>801</v>
-      </c>
-      <c r="L2" s="56"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="56"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" ht="31.5">
-      <c r="A10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="15.75">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="15.75">
-      <c r="A12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15.75">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" ht="15.75">
-      <c r="A14" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="30">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30">
-        <v>1</v>
-      </c>
-      <c r="D15" s="30">
-        <v>1</v>
-      </c>
-      <c r="E15" s="30">
-        <v>1</v>
-      </c>
-      <c r="F15" s="31">
-        <v>2</v>
-      </c>
-      <c r="G15" s="31">
-        <v>2</v>
-      </c>
-      <c r="H15" s="31">
-        <v>2</v>
-      </c>
-      <c r="I15" s="31">
-        <v>2</v>
-      </c>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="30">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30">
-        <v>1</v>
-      </c>
-      <c r="D21" s="30">
-        <v>1</v>
-      </c>
-      <c r="E21" s="30">
-        <v>1</v>
-      </c>
-      <c r="F21" s="31">
-        <v>1</v>
-      </c>
-      <c r="G21" s="31">
-        <v>1</v>
-      </c>
-      <c r="H21" s="31">
-        <v>1</v>
-      </c>
-      <c r="I21" s="31">
-        <v>1</v>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="32">
-        <v>59.95</v>
-      </c>
-      <c r="C23" s="33">
-        <v>59.95</v>
-      </c>
-      <c r="D23" s="32">
-        <v>59.95</v>
-      </c>
-      <c r="E23" s="32">
-        <v>59.95</v>
-      </c>
-      <c r="F23" s="34">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G23" s="34">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H23" s="34">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I23" s="34">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="J23" s="34"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="32">
-        <v>0</v>
-      </c>
-      <c r="C24" s="30">
-        <v>0</v>
-      </c>
-      <c r="D24" s="32">
-        <v>0</v>
-      </c>
-      <c r="E24" s="32">
-        <v>0</v>
-      </c>
-      <c r="F24" s="34">
-        <v>0</v>
-      </c>
-      <c r="G24" s="34">
-        <v>0</v>
-      </c>
-      <c r="H24" s="34">
-        <v>0</v>
-      </c>
-      <c r="I24" s="34">
-        <v>0</v>
-      </c>
-      <c r="J24" s="34"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" spans="1:10" ht="267.75">
-      <c r="A26" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" spans="1:10" ht="225">
-      <c r="A27" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.5">
-      <c r="A28" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75">
-      <c r="A32" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" s="31"/>
-    </row>
-    <row r="36" spans="1:10" s="40" customFormat="1" ht="15.75">
-      <c r="A36" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="38">
-        <v>59.95</v>
-      </c>
-      <c r="C36" s="38">
-        <v>59.95</v>
-      </c>
-      <c r="D36" s="38">
-        <v>59.95</v>
-      </c>
-      <c r="E36" s="38">
-        <v>59.95</v>
-      </c>
-      <c r="F36" s="39">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G36" s="39">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H36" s="39">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I36" s="39">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75">
-      <c r="A37" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="38">
-        <v>0</v>
-      </c>
-      <c r="C37" s="32">
-        <v>0</v>
-      </c>
-      <c r="D37" s="32">
-        <v>0</v>
-      </c>
-      <c r="E37" s="32">
-        <v>0</v>
-      </c>
-      <c r="F37" s="34">
-        <v>0</v>
-      </c>
-      <c r="G37" s="34">
-        <v>0</v>
-      </c>
-      <c r="H37" s="34">
-        <v>0</v>
-      </c>
-      <c r="I37" s="34">
-        <v>0</v>
-      </c>
-      <c r="J37" s="34"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75">
-      <c r="A38" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="30">
-        <v>3</v>
-      </c>
-      <c r="C38" s="30">
-        <v>3</v>
-      </c>
-      <c r="D38" s="30">
-        <v>3</v>
-      </c>
-      <c r="E38" s="30">
-        <v>3</v>
-      </c>
-      <c r="F38" s="31">
-        <v>3</v>
-      </c>
-      <c r="G38" s="31">
-        <v>3</v>
-      </c>
-      <c r="H38" s="31">
-        <v>3</v>
-      </c>
-      <c r="I38" s="31">
-        <v>3</v>
-      </c>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" ht="31.5">
-      <c r="A39" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="J39" s="34"/>
-    </row>
-    <row r="40" spans="1:10" ht="267.75">
-      <c r="A40" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" ht="225">
-      <c r="A41" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42" spans="1:10" ht="126">
-      <c r="A42" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J42" s="35"/>
-    </row>
-    <row r="43" spans="1:10" ht="31.5">
-      <c r="A43" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-    </row>
-    <row r="45" spans="1:10" ht="47.25">
-      <c r="A45" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" s="31"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="31"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75">
-      <c r="A47" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75">
-      <c r="A48" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75">
-      <c r="A49" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75">
-      <c r="A50" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="J50" s="31"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75">
-      <c r="A51" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J51" s="31"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75">
-      <c r="A52" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="30">
-        <v>3</v>
-      </c>
-      <c r="C52" s="30">
-        <v>3</v>
-      </c>
-      <c r="D52" s="30">
-        <v>3</v>
-      </c>
-      <c r="E52" s="30">
-        <v>3</v>
-      </c>
-      <c r="F52" s="31">
-        <v>3</v>
-      </c>
-      <c r="G52" s="31">
-        <v>3</v>
-      </c>
-      <c r="H52" s="31">
-        <v>3</v>
-      </c>
-      <c r="I52" s="31">
-        <v>3</v>
-      </c>
-      <c r="J52" s="31"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75">
-      <c r="A53" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-    </row>
-    <row r="54" spans="1:10" s="40" customFormat="1" ht="15.75">
-      <c r="A54" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" s="38">
-        <v>59.95</v>
-      </c>
-      <c r="C54" s="38">
-        <v>59.95</v>
-      </c>
-      <c r="D54" s="38">
-        <v>59.95</v>
-      </c>
-      <c r="E54" s="38">
-        <v>59.95</v>
-      </c>
-      <c r="F54" s="39">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G54" s="39">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H54" s="39">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I54" s="39">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="J54" s="39"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75">
-      <c r="A55" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="32">
-        <v>3.99</v>
-      </c>
-      <c r="C55" s="32">
-        <v>3.99</v>
-      </c>
-      <c r="D55" s="32">
-        <v>3.99</v>
-      </c>
-      <c r="E55" s="32">
-        <v>3.99</v>
-      </c>
-      <c r="F55" s="34">
-        <v>3.99</v>
-      </c>
-      <c r="G55" s="34">
-        <v>3.99</v>
-      </c>
-      <c r="H55" s="34">
-        <v>3.99</v>
-      </c>
-      <c r="I55" s="34">
-        <v>3.99</v>
-      </c>
-      <c r="J55" s="34"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75">
-      <c r="A56" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H56" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J56" s="31"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75">
-      <c r="A57" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="I57" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="J57" s="31"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75">
-      <c r="A58" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="30">
-        <v>3</v>
-      </c>
-      <c r="C58" s="30">
-        <v>3</v>
-      </c>
-      <c r="D58" s="30">
-        <v>3</v>
-      </c>
-      <c r="E58" s="30">
-        <v>3</v>
-      </c>
-      <c r="F58" s="31">
-        <v>3</v>
-      </c>
-      <c r="G58" s="31">
-        <v>3</v>
-      </c>
-      <c r="H58" s="31">
-        <v>3</v>
-      </c>
-      <c r="I58" s="31">
-        <v>3</v>
-      </c>
-      <c r="J58" s="31"/>
-    </row>
-    <row r="59" spans="1:10" s="45" customFormat="1" ht="15.75">
-      <c r="A59" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="44"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75">
-      <c r="A60" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="I60" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J60" s="31"/>
-    </row>
-    <row r="61" spans="1:10" ht="31.5">
-      <c r="A61" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H61" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="I61" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="J61" s="31"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75">
-      <c r="A62" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="H62" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="I62" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="J62" s="31"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75">
-      <c r="A63" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="H63" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="I63" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="J63" s="31"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75">
-      <c r="A64" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75">
-      <c r="A65" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="H65" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I65" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J65" s="31"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75">
-      <c r="A66" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="30">
-        <v>1</v>
-      </c>
-      <c r="C66" s="30">
-        <v>1</v>
-      </c>
-      <c r="D66" s="30">
-        <v>1</v>
-      </c>
-      <c r="E66" s="30">
-        <v>1</v>
-      </c>
-      <c r="F66" s="31">
-        <v>1</v>
-      </c>
-      <c r="G66" s="31">
-        <v>1</v>
-      </c>
-      <c r="H66" s="31">
-        <v>1</v>
-      </c>
-      <c r="I66" s="31">
-        <v>1</v>
-      </c>
-      <c r="J66" s="31"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75">
-      <c r="A67" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75">
-      <c r="A68" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B68" s="38">
-        <v>69.95</v>
-      </c>
-      <c r="C68" s="38">
-        <v>69.95</v>
-      </c>
-      <c r="D68" s="38">
-        <v>69.95</v>
-      </c>
-      <c r="E68" s="38">
-        <v>69.95</v>
-      </c>
-      <c r="F68" s="39">
-        <v>49.95</v>
-      </c>
-      <c r="G68" s="39">
-        <v>49.95</v>
-      </c>
-      <c r="H68" s="39">
-        <v>49.95</v>
-      </c>
-      <c r="I68" s="39">
-        <v>49.95</v>
-      </c>
-      <c r="J68" s="39"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75">
-      <c r="A69" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="32">
-        <v>0</v>
-      </c>
-      <c r="C69" s="38">
-        <v>0</v>
-      </c>
-      <c r="D69" s="32">
-        <v>0</v>
-      </c>
-      <c r="E69" s="32">
-        <v>0</v>
-      </c>
-      <c r="F69" s="34">
-        <v>0</v>
-      </c>
-      <c r="G69" s="34">
-        <v>0</v>
-      </c>
-      <c r="H69" s="34">
-        <v>0</v>
-      </c>
-      <c r="I69" s="34">
-        <v>0</v>
-      </c>
-      <c r="J69" s="34"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75">
-      <c r="A70" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="G70" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="H70" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="I70" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="J70" s="31"/>
-    </row>
-    <row r="71" spans="1:10" ht="31.5">
-      <c r="A71" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-    </row>
-    <row r="72" spans="1:10" ht="31.5">
-      <c r="A72" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="H72" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="I72" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="J72" s="31"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75">
-      <c r="A73" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H73" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I73" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J73" s="31"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75">
-      <c r="A74" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75">
-      <c r="A75" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75">
-      <c r="A76" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-    </row>
-    <row r="77" spans="1:10" ht="283.5">
-      <c r="A77" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G77" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="H77" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="I77" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="J77" s="31"/>
-    </row>
-    <row r="78" spans="1:10" ht="236.25">
-      <c r="A78" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="G78" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H78" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="I78" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J78" s="31"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75">
-      <c r="A79" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F79" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="G79" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="H79" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="J79" s="31"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75">
-      <c r="A80" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75">
-      <c r="A81" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F81" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="G81" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="H81" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="I81" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="J81" s="31"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75">
-      <c r="A82" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" s="30">
-        <v>3</v>
-      </c>
-      <c r="C82" s="30">
-        <v>3</v>
-      </c>
-      <c r="D82" s="30">
-        <v>3</v>
-      </c>
-      <c r="E82" s="30">
-        <v>3</v>
-      </c>
-      <c r="F82" s="31">
-        <v>3</v>
-      </c>
-      <c r="G82" s="31">
-        <v>3</v>
-      </c>
-      <c r="H82" s="31">
-        <v>3</v>
-      </c>
-      <c r="I82" s="31">
-        <v>3</v>
-      </c>
-      <c r="J82" s="31"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75">
-      <c r="A83" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="C83" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="D83" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="E83" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="F83" s="34">
-        <v>49.95</v>
-      </c>
-      <c r="G83" s="34">
-        <v>49.95</v>
-      </c>
-      <c r="H83" s="34">
-        <v>49.95</v>
-      </c>
-      <c r="I83" s="34">
-        <v>49.95</v>
-      </c>
-      <c r="J83" s="34"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75">
-      <c r="A84" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" s="32">
-        <v>0</v>
-      </c>
-      <c r="C84" s="38">
-        <v>0</v>
-      </c>
-      <c r="D84" s="32">
-        <v>0</v>
-      </c>
-      <c r="E84" s="32">
-        <v>0</v>
-      </c>
-      <c r="F84" s="34">
-        <v>0</v>
-      </c>
-      <c r="G84" s="34">
-        <v>0</v>
-      </c>
-      <c r="H84" s="34">
-        <v>0</v>
-      </c>
-      <c r="I84" s="34">
-        <v>0</v>
-      </c>
-      <c r="J84" s="34"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75">
-      <c r="A85" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="G85" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="H85" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="I85" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="J85" s="31"/>
-    </row>
-    <row r="86" spans="1:10" ht="31.5">
-      <c r="A86" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="F86" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="G86" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="H86" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="I86" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="J86" s="31"/>
-    </row>
-    <row r="87" spans="1:10" ht="283.5">
-      <c r="A87" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="F87" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="G87" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="H87" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="I87" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="J87" s="31"/>
-    </row>
-    <row r="88" spans="1:10" ht="252">
-      <c r="A88" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="F88" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="G88" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="H88" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="I88" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="J88" s="31"/>
-    </row>
-    <row r="89" spans="1:10" ht="173.25">
-      <c r="A89" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="E89" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="F89" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="G89" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="H89" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="I89" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="J89" s="31"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75">
-      <c r="A90" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-    </row>
-    <row r="91" spans="1:10" ht="31.5">
-      <c r="A91" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-    </row>
-    <row r="92" spans="1:10" ht="31.5">
-      <c r="A92" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C92" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="E92" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="G92" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="H92" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="I92" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="J92" s="31"/>
-    </row>
-    <row r="93" spans="1:10" ht="47.25">
-      <c r="A93" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G93" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H93" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="I93" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="J93" s="31"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75">
-      <c r="A94" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F94" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G94" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H94" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I94" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J94" s="31"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75">
-      <c r="A95" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75">
-      <c r="A96" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75">
-      <c r="A97" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B97" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="F97" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="G97" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="H97" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="I97" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="J97" s="31"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75">
-      <c r="A98" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75">
-      <c r="A99" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E99" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F99" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="G99" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="H99" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="I99" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="J99" s="31"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75">
-      <c r="A100" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B100" s="30">
-        <v>3</v>
-      </c>
-      <c r="C100" s="30">
-        <v>3</v>
-      </c>
-      <c r="D100" s="30">
-        <v>3</v>
-      </c>
-      <c r="E100" s="30">
-        <v>3</v>
-      </c>
-      <c r="F100" s="31">
-        <v>3</v>
-      </c>
-      <c r="G100" s="31">
-        <v>3</v>
-      </c>
-      <c r="H100" s="31">
-        <v>3</v>
-      </c>
-      <c r="I100" s="31">
-        <v>3</v>
-      </c>
-      <c r="J100" s="31"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75">
-      <c r="A101" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B101" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="C101" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="D101" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="E101" s="32">
-        <v>69.95</v>
-      </c>
-      <c r="F101" s="34">
-        <v>49.95</v>
-      </c>
-      <c r="G101" s="34">
-        <v>49.95</v>
-      </c>
-      <c r="H101" s="34">
-        <v>49.95</v>
-      </c>
-      <c r="I101" s="34">
-        <v>49.95</v>
-      </c>
-      <c r="J101" s="34"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75">
-      <c r="A102" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B102" s="32">
-        <v>3.99</v>
-      </c>
-      <c r="C102" s="32">
-        <v>3.99</v>
-      </c>
-      <c r="D102" s="32">
-        <v>3.99</v>
-      </c>
-      <c r="E102" s="32">
-        <v>3.99</v>
-      </c>
-      <c r="F102" s="34">
-        <v>3.99</v>
-      </c>
-      <c r="G102" s="34">
-        <v>3.99</v>
-      </c>
-      <c r="H102" s="34">
-        <v>3.99</v>
-      </c>
-      <c r="I102" s="34">
-        <v>3.99</v>
-      </c>
-      <c r="J102" s="34"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.75">
-      <c r="A103" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B103" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F103" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="G103" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H103" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="I103" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J103" s="31"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.75">
-      <c r="A104" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B104" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F104" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G104" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H104" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="I104" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="J104" s="31"/>
-    </row>
-    <row r="105" spans="1:10" ht="15.75">
-      <c r="A105" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="B105" s="47"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47"/>
-      <c r="J105" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A59:I59"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{CBFB98CB-F492-441B-BFB8-3A83A35C0D92}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{FE4D27D8-5D2F-409F-BCB5-984AAF39DE81}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E51E95-7444-454A-A00A-F09EA12FC20D}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F26" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4579,165 +1919,165 @@
         <v>19</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>232</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="15.75">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="15.75">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A14" s="60" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -4754,7 +2094,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B15" s="30">
         <v>1</v>
@@ -4795,130 +2135,130 @@
     </row>
     <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75">
       <c r="A17" s="29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75">
       <c r="A18" s="29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>236</v>
+        <v>57</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="29" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -4935,48 +2275,48 @@
     </row>
     <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="29" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="29" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B21" s="30">
         <v>1</v>
@@ -5017,7 +2357,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.75">
       <c r="A22" s="29" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -5034,7 +2374,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75">
       <c r="A23" s="29" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B23" s="32">
         <v>59.95</v>
@@ -5075,7 +2415,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="29" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B24" s="32">
         <v>0</v>
@@ -5116,148 +2456,148 @@
     </row>
     <row r="25" spans="1:13" ht="15.75">
       <c r="A25" s="29" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L25" s="34" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M25" s="34" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="267.75">
       <c r="A26" s="29" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="225">
       <c r="A27" s="29" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="31.5">
       <c r="A28" s="29" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
@@ -5268,48 +2608,48 @@
     </row>
     <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="29" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="29" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -5326,7 +2666,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="29" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -5343,7 +2683,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75">
       <c r="A32" s="29" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -5360,7 +2700,7 @@
     </row>
     <row r="33" spans="1:13" ht="15.75">
       <c r="A33" s="29" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -5377,89 +2717,89 @@
     </row>
     <row r="34" spans="1:13" ht="15.75">
       <c r="A34" s="29" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K34" s="31" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>246</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75">
       <c r="A35" s="29" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="K35" s="31" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="40" customFormat="1" ht="15.75">
       <c r="A36" s="37" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B36" s="38">
         <v>59.95</v>
@@ -5500,7 +2840,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75">
       <c r="A37" s="29" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B37" s="38">
         <v>0</v>
@@ -5541,7 +2881,7 @@
     </row>
     <row r="38" spans="1:13" ht="15.75">
       <c r="A38" s="29" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B38" s="30">
         <v>3</v>
@@ -5582,189 +2922,189 @@
     </row>
     <row r="39" spans="1:13" ht="31.5">
       <c r="A39" s="29" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="L39" s="34" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="M39" s="34" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="267.75">
       <c r="A40" s="29" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="225">
       <c r="A41" s="29" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I41" s="35" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M41" s="35" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="126">
       <c r="A42" s="29" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="I42" s="35" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="31.5">
       <c r="A43" s="29" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H43" s="31"/>
       <c r="I43" s="31"/>
@@ -5775,7 +3115,7 @@
     </row>
     <row r="44" spans="1:13" ht="15.75">
       <c r="A44" s="29" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -5792,89 +3132,89 @@
     </row>
     <row r="45" spans="1:13" ht="47.25">
       <c r="A45" s="29" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="J45" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="29" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M46" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="29" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -5891,7 +3231,7 @@
     </row>
     <row r="48" spans="1:13" ht="15.75">
       <c r="A48" s="29" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -5908,7 +3248,7 @@
     </row>
     <row r="49" spans="1:24" ht="15.75">
       <c r="A49" s="29" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -5925,89 +3265,89 @@
     </row>
     <row r="50" spans="1:24" ht="15.75">
       <c r="A50" s="29" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="H50" s="31" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="J50" s="31" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="K50" s="31" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="L50" s="31" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="M50" s="31" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="15.75">
       <c r="A51" s="29" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="J51" s="31" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="K51" s="31" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="L51" s="31" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="M51" s="31" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="15.75">
       <c r="A52" s="29" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B52" s="30">
         <v>3</v>
@@ -6048,7 +3388,7 @@
     </row>
     <row r="53" spans="1:24" ht="15.75">
       <c r="A53" s="29" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -6065,7 +3405,7 @@
     </row>
     <row r="54" spans="1:24" s="40" customFormat="1" ht="15.75">
       <c r="A54" s="37" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B54" s="38">
         <v>59.95</v>
@@ -6106,7 +3446,7 @@
     </row>
     <row r="55" spans="1:24" ht="15.75">
       <c r="A55" s="29" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B55" s="32">
         <v>3.99</v>
@@ -6147,89 +3487,89 @@
     </row>
     <row r="56" spans="1:24" ht="15.75">
       <c r="A56" s="29" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="J56" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="K56" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="L56" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="M56" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="15.75">
       <c r="A57" s="29" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="J57" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="M57" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="15.75">
       <c r="A58" s="29" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B58" s="30">
         <v>3</v>
@@ -6270,7 +3610,7 @@
     </row>
     <row r="59" spans="1:24" s="45" customFormat="1" ht="15.75">
       <c r="A59" s="63" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B59" s="63"/>
       <c r="C59" s="63"/>
@@ -6298,171 +3638,171 @@
     </row>
     <row r="60" spans="1:24" ht="15.75">
       <c r="A60" s="29" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I60" s="31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J60" s="31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K60" s="31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L60" s="31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M60" s="31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="31.5">
       <c r="A61" s="29" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="G61" s="30" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="I61" s="31" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="J61" s="31" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="K61" s="31" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="L61" s="31" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="M61" s="31" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="15.75">
       <c r="A62" s="29" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="I62" s="31" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="J62" s="31" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="K62" s="31" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="L62" s="31" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="M62" s="31" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="15.75">
       <c r="A63" s="29" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="I63" s="31" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="J63" s="31" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="L63" s="31" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M63" s="31" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="15.75">
       <c r="A64" s="29" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -6479,48 +3819,48 @@
     </row>
     <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="29" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J65" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M65" s="31" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="29" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="B66" s="30">
         <v>1</v>
@@ -6561,7 +3901,7 @@
     </row>
     <row r="67" spans="1:13" ht="15.75">
       <c r="A67" s="29" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
@@ -6578,7 +3918,7 @@
     </row>
     <row r="68" spans="1:13" ht="15.75">
       <c r="A68" s="29" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B68" s="38">
         <v>69.95</v>
@@ -6619,7 +3959,7 @@
     </row>
     <row r="69" spans="1:13" ht="15.75">
       <c r="A69" s="29" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="B69" s="32">
         <v>0</v>
@@ -6660,66 +4000,66 @@
     </row>
     <row r="70" spans="1:13" ht="15.75">
       <c r="A70" s="29" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="H70" s="31" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="I70" s="34" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="J70" s="34" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="K70" s="34" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="L70" s="34" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="31.5">
       <c r="A71" s="29" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
@@ -6730,89 +4070,89 @@
     </row>
     <row r="72" spans="1:13" ht="31.5">
       <c r="A72" s="29" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="I72" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="J72" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="K72" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="L72" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="M72" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75">
       <c r="A73" s="29" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I73" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J73" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K73" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L73" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M73" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15.75">
       <c r="A74" s="29" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
@@ -6829,7 +4169,7 @@
     </row>
     <row r="75" spans="1:13" ht="15.75">
       <c r="A75" s="29" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
@@ -6846,7 +4186,7 @@
     </row>
     <row r="76" spans="1:13" ht="15.75">
       <c r="A76" s="29" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -6863,130 +4203,130 @@
     </row>
     <row r="77" spans="1:13" ht="283.5">
       <c r="A77" s="29" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="I77" s="31" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="J77" s="31" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="K77" s="31" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="L77" s="31" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="M77" s="31" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="236.25">
       <c r="A78" s="29" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="H78" s="31" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="I78" s="31" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="J78" s="31" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="K78" s="31" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="L78" s="31" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="M78" s="31" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75">
       <c r="A79" s="29" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="I79" s="31" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="J79" s="31" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="K79" s="31" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="L79" s="31" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="M79" s="31" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75">
       <c r="A80" s="29" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
@@ -7003,48 +4343,48 @@
     </row>
     <row r="81" spans="1:13" ht="15.75">
       <c r="A81" s="29" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="J81" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="K81" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="L81" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="M81" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15.75">
       <c r="A82" s="29" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="B82" s="30">
         <v>3</v>
@@ -7085,7 +4425,7 @@
     </row>
     <row r="83" spans="1:13" ht="15.75">
       <c r="A83" s="29" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B83" s="32">
         <v>69.95</v>
@@ -7126,7 +4466,7 @@
     </row>
     <row r="84" spans="1:13" ht="15.75">
       <c r="A84" s="29" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B84" s="32">
         <v>0</v>
@@ -7167,212 +4507,212 @@
     </row>
     <row r="85" spans="1:13" ht="15.75">
       <c r="A85" s="29" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F85" s="32" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="I85" s="34" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="J85" s="34" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="K85" s="34" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="L85" s="34" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="M85" s="34" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="31.5">
       <c r="A86" s="29" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="H86" s="31" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="I86" s="34" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="J86" s="34" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="K86" s="34" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="L86" s="34" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="M86" s="34" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="283.5">
       <c r="A87" s="29" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G87" s="30" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="H87" s="31" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="I87" s="31" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="J87" s="31" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="K87" s="31" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="L87" s="31" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="M87" s="31" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="252">
       <c r="A88" s="29" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="H88" s="31" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="I88" s="31" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="J88" s="31" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="K88" s="31" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="L88" s="31" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="M88" s="31" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="173.25">
       <c r="A89" s="29" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="G89" s="30" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="H89" s="31" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="J89" s="31" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="L89" s="31" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="M89" s="31" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15.75">
       <c r="A90" s="29" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
@@ -7389,25 +4729,25 @@
     </row>
     <row r="91" spans="1:13" ht="31.5">
       <c r="A91" s="29" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F91" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G91" s="30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
@@ -7418,130 +4758,130 @@
     </row>
     <row r="92" spans="1:13" ht="31.5">
       <c r="A92" s="29" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="F92" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="G92" s="30" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H92" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="I92" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="J92" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="K92" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="L92" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="M92" s="31" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="47.25">
       <c r="A93" s="29" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="F93" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H93" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="I93" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="J93" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="K93" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="L93" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="M93" s="31" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15.75">
       <c r="A94" s="29" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H94" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I94" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J94" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K94" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L94" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M94" s="31" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15.75">
       <c r="A95" s="29" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
@@ -7558,7 +4898,7 @@
     </row>
     <row r="96" spans="1:13" ht="15.75">
       <c r="A96" s="29" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
@@ -7575,48 +4915,48 @@
     </row>
     <row r="97" spans="1:13" ht="15.75">
       <c r="A97" s="29" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="C97" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="H97" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="I97" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J97" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K97" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="D97" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="G97" s="30" t="s">
+      <c r="L97" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="H97" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="I97" s="31" t="s">
+      <c r="M97" s="31" t="s">
         <v>273</v>
-      </c>
-      <c r="J97" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="K97" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="L97" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="M97" s="31" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.75">
       <c r="A98" s="29" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
@@ -7633,48 +4973,48 @@
     </row>
     <row r="99" spans="1:13" ht="15.75">
       <c r="A99" s="29" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="H99" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="I99" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="J99" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="K99" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="L99" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="M99" s="31" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="15.75">
       <c r="A100" s="29" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B100" s="30">
         <v>3</v>
@@ -7715,7 +5055,7 @@
     </row>
     <row r="101" spans="1:13" ht="15.75">
       <c r="A101" s="29" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B101" s="32">
         <v>69.95</v>
@@ -7756,7 +5096,7 @@
     </row>
     <row r="102" spans="1:13" ht="15.75">
       <c r="A102" s="29" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B102" s="32">
         <v>3.99</v>
@@ -7797,89 +5137,89 @@
     </row>
     <row r="103" spans="1:13" ht="15.75">
       <c r="A103" s="29" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="H103" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="I103" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="J103" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="K103" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="L103" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="M103" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="15.75">
       <c r="A104" s="29" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="H104" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="I104" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="J104" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="K104" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="L104" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="M104" s="31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="15.75">
       <c r="A105" s="46" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
@@ -7908,22 +5248,2673 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="48" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" style="48" customWidth="1"/>
+    <col min="11" max="11" width="37.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="56"/>
+    </row>
+    <row r="2" spans="1:12" ht="30">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="10">
+        <v>53</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="52">
+        <v>801</v>
+      </c>
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" ht="31.5">
+      <c r="A10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="15.75">
+      <c r="A14" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
+      <c r="A15" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="30">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30">
+        <v>1</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31">
+        <v>2</v>
+      </c>
+      <c r="G15" s="31">
+        <v>2</v>
+      </c>
+      <c r="H15" s="31">
+        <v>2</v>
+      </c>
+      <c r="I15" s="31">
+        <v>2</v>
+      </c>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75">
+      <c r="A16" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
+      <c r="A17" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
+      <c r="A18" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
+      <c r="A19" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75">
+      <c r="A20" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
+      <c r="A21" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="30">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+      <c r="F21" s="31">
+        <v>1</v>
+      </c>
+      <c r="G21" s="31">
+        <v>1</v>
+      </c>
+      <c r="H21" s="31">
+        <v>1</v>
+      </c>
+      <c r="I21" s="31">
+        <v>1</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75">
+      <c r="A22" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
+      <c r="A23" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="32">
+        <v>59.95</v>
+      </c>
+      <c r="C23" s="33">
+        <v>59.95</v>
+      </c>
+      <c r="D23" s="32">
+        <v>59.95</v>
+      </c>
+      <c r="E23" s="32">
+        <v>59.95</v>
+      </c>
+      <c r="F23" s="34">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G23" s="34">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H23" s="34">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I23" s="34">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
+      <c r="A24" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="32">
+        <v>0</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0</v>
+      </c>
+      <c r="I24" s="34">
+        <v>0</v>
+      </c>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75">
+      <c r="A25" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" ht="267.75">
+      <c r="A26" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" ht="225">
+      <c r="A27" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:10" ht="31.5">
+      <c r="A28" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75">
+      <c r="A29" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75">
+      <c r="A30" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75">
+      <c r="A31" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75">
+      <c r="A32" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75">
+      <c r="A33" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75">
+      <c r="A34" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="31"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75">
+      <c r="A35" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="31"/>
+    </row>
+    <row r="36" spans="1:10" s="40" customFormat="1" ht="15.75">
+      <c r="A36" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="38">
+        <v>59.95</v>
+      </c>
+      <c r="C36" s="38">
+        <v>59.95</v>
+      </c>
+      <c r="D36" s="38">
+        <v>59.95</v>
+      </c>
+      <c r="E36" s="38">
+        <v>59.95</v>
+      </c>
+      <c r="F36" s="39">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G36" s="39">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H36" s="39">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I36" s="39">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
+      <c r="A37" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="38">
+        <v>0</v>
+      </c>
+      <c r="C37" s="32">
+        <v>0</v>
+      </c>
+      <c r="D37" s="32">
+        <v>0</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0</v>
+      </c>
+      <c r="F37" s="34">
+        <v>0</v>
+      </c>
+      <c r="G37" s="34">
+        <v>0</v>
+      </c>
+      <c r="H37" s="34">
+        <v>0</v>
+      </c>
+      <c r="I37" s="34">
+        <v>0</v>
+      </c>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75">
+      <c r="A38" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="30">
+        <v>3</v>
+      </c>
+      <c r="C38" s="30">
+        <v>3</v>
+      </c>
+      <c r="D38" s="30">
+        <v>3</v>
+      </c>
+      <c r="E38" s="30">
+        <v>3</v>
+      </c>
+      <c r="F38" s="31">
+        <v>3</v>
+      </c>
+      <c r="G38" s="31">
+        <v>3</v>
+      </c>
+      <c r="H38" s="31">
+        <v>3</v>
+      </c>
+      <c r="I38" s="31">
+        <v>3</v>
+      </c>
+      <c r="J38" s="31"/>
+    </row>
+    <row r="39" spans="1:10" ht="31.5">
+      <c r="A39" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J39" s="34"/>
+    </row>
+    <row r="40" spans="1:10" ht="267.75">
+      <c r="A40" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="31"/>
+    </row>
+    <row r="41" spans="1:10" ht="225">
+      <c r="A41" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" ht="126">
+      <c r="A42" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" spans="1:10" ht="31.5">
+      <c r="A43" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="A44" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+    </row>
+    <row r="45" spans="1:10" ht="47.25">
+      <c r="A45" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="31"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75">
+      <c r="A46" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="31"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75">
+      <c r="A47" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75">
+      <c r="A48" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75">
+      <c r="A49" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75">
+      <c r="A50" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="J50" s="31"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75">
+      <c r="A51" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J51" s="31"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75">
+      <c r="A52" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="30">
+        <v>3</v>
+      </c>
+      <c r="C52" s="30">
+        <v>3</v>
+      </c>
+      <c r="D52" s="30">
+        <v>3</v>
+      </c>
+      <c r="E52" s="30">
+        <v>3</v>
+      </c>
+      <c r="F52" s="31">
+        <v>3</v>
+      </c>
+      <c r="G52" s="31">
+        <v>3</v>
+      </c>
+      <c r="H52" s="31">
+        <v>3</v>
+      </c>
+      <c r="I52" s="31">
+        <v>3</v>
+      </c>
+      <c r="J52" s="31"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75">
+      <c r="A53" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+    </row>
+    <row r="54" spans="1:10" s="40" customFormat="1" ht="15.75">
+      <c r="A54" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="38">
+        <v>59.95</v>
+      </c>
+      <c r="C54" s="38">
+        <v>59.95</v>
+      </c>
+      <c r="D54" s="38">
+        <v>59.95</v>
+      </c>
+      <c r="E54" s="38">
+        <v>59.95</v>
+      </c>
+      <c r="F54" s="39">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G54" s="39">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H54" s="39">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I54" s="39">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="J54" s="39"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75">
+      <c r="A55" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="32">
+        <v>3.99</v>
+      </c>
+      <c r="C55" s="32">
+        <v>3.99</v>
+      </c>
+      <c r="D55" s="32">
+        <v>3.99</v>
+      </c>
+      <c r="E55" s="32">
+        <v>3.99</v>
+      </c>
+      <c r="F55" s="34">
+        <v>3.99</v>
+      </c>
+      <c r="G55" s="34">
+        <v>3.99</v>
+      </c>
+      <c r="H55" s="34">
+        <v>3.99</v>
+      </c>
+      <c r="I55" s="34">
+        <v>3.99</v>
+      </c>
+      <c r="J55" s="34"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75">
+      <c r="A56" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="J56" s="31"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75">
+      <c r="A57" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="J57" s="31"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75">
+      <c r="A58" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="30">
+        <v>3</v>
+      </c>
+      <c r="C58" s="30">
+        <v>3</v>
+      </c>
+      <c r="D58" s="30">
+        <v>3</v>
+      </c>
+      <c r="E58" s="30">
+        <v>3</v>
+      </c>
+      <c r="F58" s="31">
+        <v>3</v>
+      </c>
+      <c r="G58" s="31">
+        <v>3</v>
+      </c>
+      <c r="H58" s="31">
+        <v>3</v>
+      </c>
+      <c r="I58" s="31">
+        <v>3</v>
+      </c>
+      <c r="J58" s="31"/>
+    </row>
+    <row r="59" spans="1:10" s="45" customFormat="1" ht="15.75">
+      <c r="A59" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="44"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75">
+      <c r="A60" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" s="31"/>
+    </row>
+    <row r="61" spans="1:10" ht="31.5">
+      <c r="A61" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J61" s="31"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75">
+      <c r="A62" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="J62" s="31"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75">
+      <c r="A63" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="J63" s="31"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75">
+      <c r="A64" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75">
+      <c r="A65" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J65" s="31"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75">
+      <c r="A66" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="30">
+        <v>1</v>
+      </c>
+      <c r="C66" s="30">
+        <v>1</v>
+      </c>
+      <c r="D66" s="30">
+        <v>1</v>
+      </c>
+      <c r="E66" s="30">
+        <v>1</v>
+      </c>
+      <c r="F66" s="31">
+        <v>1</v>
+      </c>
+      <c r="G66" s="31">
+        <v>1</v>
+      </c>
+      <c r="H66" s="31">
+        <v>1</v>
+      </c>
+      <c r="I66" s="31">
+        <v>1</v>
+      </c>
+      <c r="J66" s="31"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75">
+      <c r="A67" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75">
+      <c r="A68" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="38">
+        <v>69.95</v>
+      </c>
+      <c r="C68" s="38">
+        <v>69.95</v>
+      </c>
+      <c r="D68" s="38">
+        <v>69.95</v>
+      </c>
+      <c r="E68" s="38">
+        <v>69.95</v>
+      </c>
+      <c r="F68" s="39">
+        <v>49.95</v>
+      </c>
+      <c r="G68" s="39">
+        <v>49.95</v>
+      </c>
+      <c r="H68" s="39">
+        <v>49.95</v>
+      </c>
+      <c r="I68" s="39">
+        <v>49.95</v>
+      </c>
+      <c r="J68" s="39"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75">
+      <c r="A69" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="32">
+        <v>0</v>
+      </c>
+      <c r="C69" s="38">
+        <v>0</v>
+      </c>
+      <c r="D69" s="32">
+        <v>0</v>
+      </c>
+      <c r="E69" s="32">
+        <v>0</v>
+      </c>
+      <c r="F69" s="34">
+        <v>0</v>
+      </c>
+      <c r="G69" s="34">
+        <v>0</v>
+      </c>
+      <c r="H69" s="34">
+        <v>0</v>
+      </c>
+      <c r="I69" s="34">
+        <v>0</v>
+      </c>
+      <c r="J69" s="34"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75">
+      <c r="A70" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J70" s="31"/>
+    </row>
+    <row r="71" spans="1:10" ht="31.5">
+      <c r="A71" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+    </row>
+    <row r="72" spans="1:10" ht="31.5">
+      <c r="A72" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J72" s="31"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75">
+      <c r="A73" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J73" s="31"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75">
+      <c r="A74" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75">
+      <c r="A75" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75">
+      <c r="A76" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+    </row>
+    <row r="77" spans="1:10" ht="283.5">
+      <c r="A77" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="J77" s="31"/>
+    </row>
+    <row r="78" spans="1:10" ht="236.25">
+      <c r="A78" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J78" s="31"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75">
+      <c r="A79" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J79" s="31"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75">
+      <c r="A80" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75">
+      <c r="A81" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J81" s="31"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75">
+      <c r="A82" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" s="30">
+        <v>3</v>
+      </c>
+      <c r="C82" s="30">
+        <v>3</v>
+      </c>
+      <c r="D82" s="30">
+        <v>3</v>
+      </c>
+      <c r="E82" s="30">
+        <v>3</v>
+      </c>
+      <c r="F82" s="31">
+        <v>3</v>
+      </c>
+      <c r="G82" s="31">
+        <v>3</v>
+      </c>
+      <c r="H82" s="31">
+        <v>3</v>
+      </c>
+      <c r="I82" s="31">
+        <v>3</v>
+      </c>
+      <c r="J82" s="31"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75">
+      <c r="A83" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="C83" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="D83" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="E83" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="F83" s="34">
+        <v>49.95</v>
+      </c>
+      <c r="G83" s="34">
+        <v>49.95</v>
+      </c>
+      <c r="H83" s="34">
+        <v>49.95</v>
+      </c>
+      <c r="I83" s="34">
+        <v>49.95</v>
+      </c>
+      <c r="J83" s="34"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75">
+      <c r="A84" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="32">
+        <v>0</v>
+      </c>
+      <c r="C84" s="38">
+        <v>0</v>
+      </c>
+      <c r="D84" s="32">
+        <v>0</v>
+      </c>
+      <c r="E84" s="32">
+        <v>0</v>
+      </c>
+      <c r="F84" s="34">
+        <v>0</v>
+      </c>
+      <c r="G84" s="34">
+        <v>0</v>
+      </c>
+      <c r="H84" s="34">
+        <v>0</v>
+      </c>
+      <c r="I84" s="34">
+        <v>0</v>
+      </c>
+      <c r="J84" s="34"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75">
+      <c r="A85" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J85" s="31"/>
+    </row>
+    <row r="86" spans="1:10" ht="31.5">
+      <c r="A86" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I86" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="J86" s="31"/>
+    </row>
+    <row r="87" spans="1:10" ht="283.5">
+      <c r="A87" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="I87" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J87" s="31"/>
+    </row>
+    <row r="88" spans="1:10" ht="252">
+      <c r="A88" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="I88" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J88" s="31"/>
+    </row>
+    <row r="89" spans="1:10" ht="173.25">
+      <c r="A89" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="H89" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="I89" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J89" s="31"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75">
+      <c r="A90" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+    </row>
+    <row r="91" spans="1:10" ht="31.5">
+      <c r="A91" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+    </row>
+    <row r="92" spans="1:10" ht="31.5">
+      <c r="A92" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="I92" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J92" s="31"/>
+    </row>
+    <row r="93" spans="1:10" ht="47.25">
+      <c r="A93" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I93" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J93" s="31"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75">
+      <c r="A94" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H94" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I94" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J94" s="31"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75">
+      <c r="A95" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75">
+      <c r="A96" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75">
+      <c r="A97" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="H97" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="I97" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J97" s="31"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75">
+      <c r="A98" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75">
+      <c r="A99" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="I99" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J99" s="31"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.75">
+      <c r="A100" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="30">
+        <v>3</v>
+      </c>
+      <c r="C100" s="30">
+        <v>3</v>
+      </c>
+      <c r="D100" s="30">
+        <v>3</v>
+      </c>
+      <c r="E100" s="30">
+        <v>3</v>
+      </c>
+      <c r="F100" s="31">
+        <v>3</v>
+      </c>
+      <c r="G100" s="31">
+        <v>3</v>
+      </c>
+      <c r="H100" s="31">
+        <v>3</v>
+      </c>
+      <c r="I100" s="31">
+        <v>3</v>
+      </c>
+      <c r="J100" s="31"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75">
+      <c r="A101" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="C101" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="D101" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="E101" s="32">
+        <v>69.95</v>
+      </c>
+      <c r="F101" s="34">
+        <v>49.95</v>
+      </c>
+      <c r="G101" s="34">
+        <v>49.95</v>
+      </c>
+      <c r="H101" s="34">
+        <v>49.95</v>
+      </c>
+      <c r="I101" s="34">
+        <v>49.95</v>
+      </c>
+      <c r="J101" s="34"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75">
+      <c r="A102" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="32">
+        <v>3.99</v>
+      </c>
+      <c r="C102" s="32">
+        <v>3.99</v>
+      </c>
+      <c r="D102" s="32">
+        <v>3.99</v>
+      </c>
+      <c r="E102" s="32">
+        <v>3.99</v>
+      </c>
+      <c r="F102" s="34">
+        <v>3.99</v>
+      </c>
+      <c r="G102" s="34">
+        <v>3.99</v>
+      </c>
+      <c r="H102" s="34">
+        <v>3.99</v>
+      </c>
+      <c r="I102" s="34">
+        <v>3.99</v>
+      </c>
+      <c r="J102" s="34"/>
+    </row>
+    <row r="103" spans="1:10" ht="15.75">
+      <c r="A103" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G103" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H103" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="I103" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="J103" s="31"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75">
+      <c r="A104" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G104" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="I104" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="J104" s="31"/>
+    </row>
+    <row r="105" spans="1:10" ht="15.75">
+      <c r="A105" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A59:I59"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CBFB98CB-F492-441B-BFB8-3A83A35C0D92}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{FE4D27D8-5D2F-409F-BCB5-984AAF39DE81}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -8088,14 +8079,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/pnlfcp.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/pnlfcp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{34820C36-0CC0-4B6A-890F-FDE0B7A2D863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{64DF0DAF-2E7B-48E2-B85C-67681D16953B}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{34820C36-0CC0-4B6A-890F-FDE0B7A2D863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{964D515E-74D4-49A4-B767-171B23AA1CDE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="2" r:id="rId1"/>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E51E95-7444-454A-A00A-F09EA12FC20D}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7909,12 +7909,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -8079,6 +8073,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8089,11 +8089,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/pnlfcp.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/pnlfcp.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23706"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{34820C36-0CC0-4B6A-890F-FDE0B7A2D863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{964D515E-74D4-49A4-B767-171B23AA1CDE}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{34820C36-0CC0-4B6A-890F-FDE0B7A2D863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DD4B6162-F642-4C63-8227-F40ED15E94A1}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E51E95-7444-454A-A00A-F09EA12FC20D}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1799,7 +1799,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="52">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O2" s="56"/>
     </row>
@@ -7909,6 +7909,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -8073,23 +8088,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8097,5 +8097,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>